--- a/中期检查/交付件1-面向单元测试的需求分析/附录1：软件需求清单模板.xlsx
+++ b/中期检查/交付件1-面向单元测试的需求分析/附录1：软件需求清单模板.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0BC79F-5AD5-40C7-819E-7B10A42CCD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328ED432-74F0-4655-A1D9-9FB7CF943AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所有用户操作应在500毫秒内响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>若广告为空则显示网站相关信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,6 +220,10 @@
   </si>
   <si>
     <t>后端系统应该拦截用户强行提交的越权请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有用户操作应在5000毫秒内响应</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,7 +616,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -651,7 +651,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -660,7 +660,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -670,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4"/>
     </row>
@@ -679,25 +679,25 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -708,14 +708,14 @@
         <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>22</v>
@@ -728,17 +728,17 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="4"/>
     </row>
@@ -747,30 +747,30 @@
         <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -782,7 +782,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="4"/>
     </row>
@@ -792,22 +792,22 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -818,7 +818,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D17" s="4"/>
     </row>
@@ -828,7 +828,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="4"/>
     </row>
@@ -840,7 +840,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="4"/>
     </row>
